--- a/report_folder/report_4.1.a_projektkoordination.xlsx
+++ b/report_folder/report_4.1.a_projektkoordination.xlsx
@@ -232,7 +232,7 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="43"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -261,30 +261,31 @@
     <xf applyAlignment="1" borderId="6" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -304,12 +305,21 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="9" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1175,7 +1185,7 @@
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
-            <a:ln cap="rnd" w="47625">
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -1189,7 +1199,7 @@
               <a:solidFill>
                 <a:srgbClr val="BE5A54"/>
               </a:solidFill>
-              <a:ln cap="rnd" w="47625">
+              <a:ln>
                 <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
@@ -1203,31 +1213,13 @@
               <a:solidFill>
                 <a:srgbClr val="64AA72"/>
               </a:solidFill>
-              <a:ln cap="rnd" w="47625">
+              <a:ln>
                 <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
           </dPt>
           <dLbls>
-            <dLbl>
-              <idx val="0"/>
-              <showLegendKey val="0"/>
-              <showVal val="1"/>
-              <showCatName val="0"/>
-              <showSerName val="0"/>
-              <showPercent val="0"/>
-              <showBubbleSize val="0"/>
-            </dLbl>
-            <dLbl>
-              <idx val="1"/>
-              <showLegendKey val="0"/>
-              <showVal val="1"/>
-              <showCatName val="0"/>
-              <showSerName val="0"/>
-              <showPercent val="0"/>
-              <showBubbleSize val="0"/>
-            </dLbl>
             <numFmt formatCode="0%"/>
             <spPr>
               <a:noFill/>
@@ -1243,14 +1235,14 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900">
+                  <a:defRPr b="1" baseline="0" i="0" kern="1200" strike="noStrike" sz="1100">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
                         <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin charset="0" panose="020B0506020202020204" pitchFamily="34" typeface="Avenir Next Condensed Demi Bold"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -1262,11 +1254,12 @@
               </a:p>
             </txPr>
             <showLegendKey val="0"/>
-            <showVal val="0"/>
+            <showVal val="1"/>
             <showCatName val="0"/>
             <showSerName val="0"/>
             <showPercent val="0"/>
             <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
           </dLbls>
           <cat>
             <strRef>
@@ -1284,9 +1277,9 @@
           </cat>
           <val>
             <numRef>
-              <f>Tabelle1!$A$21:$B$21</f>
+              <f>Tabelle1!$A$22:$B$22</f>
               <numCache>
-                <formatCode>General</formatCode>
+                <formatCode>0.00</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>0</v>
@@ -1306,7 +1299,7 @@
           <showPercent val="0"/>
           <showBubbleSize val="0"/>
         </dLbls>
-        <gapWidth val="0"/>
+        <gapWidth val="20"/>
         <overlap val="33"/>
         <axId val="1997497503"/>
         <axId val="1931759119"/>
@@ -1340,14 +1333,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900">
+              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="1200">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin charset="0" panose="020B0506020202020204" pitchFamily="34" typeface="Avenir Next Condensed Medium"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1386,7 +1379,7 @@
             </a:ln>
           </spPr>
         </majorGridlines>
-        <numFmt formatCode="General" sourceLinked="1"/>
+        <numFmt formatCode="0.00" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -3428,15 +3421,15 @@
   <twoCellAnchor>
     <from>
       <col>4</col>
-      <colOff>790225</colOff>
+      <colOff>780065</colOff>
       <row>15</row>
-      <rowOff>49445</rowOff>
+      <rowOff>252645</rowOff>
     </from>
     <to>
       <col>6</col>
-      <colOff>773740</colOff>
-      <row>23</row>
-      <rowOff>55692</rowOff>
+      <colOff>763580</colOff>
+      <row>24</row>
+      <rowOff>45532</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -3455,15 +3448,15 @@
   <twoCellAnchor>
     <from>
       <col>0</col>
-      <colOff>13956</colOff>
-      <row>19</row>
-      <rowOff>698</rowOff>
+      <colOff>24116</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
     </from>
     <to>
       <col>1</col>
-      <colOff>807706</colOff>
+      <colOff>817866</colOff>
       <row>24</row>
-      <rowOff>48323</rowOff>
+      <rowOff>200723</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -3671,15 +3664,15 @@
   <twoCellAnchor>
     <from>
       <col>2</col>
-      <colOff>780816</colOff>
+      <colOff>801136</colOff>
       <row>67</row>
-      <rowOff>216371</rowOff>
+      <rowOff>23331</rowOff>
     </from>
     <to>
       <col>6</col>
-      <colOff>790223</colOff>
-      <row>76</row>
-      <rowOff>159927</rowOff>
+      <colOff>810543</colOff>
+      <row>75</row>
+      <rowOff>180247</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -4026,21 +4019,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" zoomScaleSheetLayoutView="100">
-      <selection activeCell="A9" sqref="A9:F13"/>
+    <sheetView tabSelected="1" topLeftCell="A33" view="pageLayout" workbookViewId="0" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" zoomScaleSheetLayoutView="100">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="19" width="10.83203125"/>
-    <col customWidth="1" max="2" min="2" style="19" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="3" style="19" width="10.83203125"/>
+    <col customWidth="1" max="1" min="1" style="15" width="10.83203125"/>
+    <col customWidth="1" max="2" min="2" style="15" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="3" style="15" width="10.83203125"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="34" r="1">
-      <c r="A1" s="25" t="inlineStr">
+      <c r="A1" s="28" t="inlineStr">
         <is>
           <t>Work-Report Trello</t>
         </is>
@@ -4056,7 +4049,7 @@
           <t>Infos</t>
         </is>
       </c>
-      <c r="B2" s="28" t="inlineStr">
+      <c r="B2" s="31" t="inlineStr">
         <is>
           <t>Projektkoordination AS</t>
         </is>
@@ -4064,7 +4057,7 @@
       <c r="G2" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="58" r="3">
-      <c r="A3" s="27" t="inlineStr">
+      <c r="A3" s="30" t="inlineStr">
         <is>
           <t>Der Report zeigt, wie du mit der Trello-Software arbeitest und hilft dir dabei, gezielter damit umzugehen. 
 Für Feedback und Fragen zum Tool melde dich bei Micha Landoll (m.landoll@aktion-sodis.org).</t>
@@ -4072,7 +4065,7 @@
       </c>
     </row>
     <row customHeight="1" ht="126" r="4">
-      <c r="A4" s="26" t="inlineStr">
+      <c r="A4" s="29" t="inlineStr">
         <is>
           <t>Der Bericht zeigt wie aktiv, zuverlässig, pünktlich, ausführlich und gemeinschaftlich dein Team mit Trello-Karten arbeitet.
 Aktiv heißt: Anzahl erstellter &amp; bewegter Karten
@@ -4084,7 +4077,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="29" t="n"/>
+      <c r="B5" s="32" t="n"/>
     </row>
     <row customHeight="1" ht="20" r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -4095,22 +4088,22 @@
       <c r="G6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="30" t="inlineStr">
+      <c r="A7" s="33" t="inlineStr">
         <is>
           <t>Zeitraum:</t>
         </is>
       </c>
-      <c r="B7" s="22" t="inlineStr">
+      <c r="B7" s="36" t="inlineStr">
         <is>
           <t>30 Tage</t>
         </is>
       </c>
-      <c r="E7" s="19" t="inlineStr">
+      <c r="E7" s="15" t="inlineStr">
         <is>
           <t>Rankinglänge:</t>
         </is>
       </c>
-      <c r="F7" s="22" t="inlineStr">
+      <c r="F7" s="36" t="inlineStr">
         <is>
           <t>5 Einträge</t>
         </is>
@@ -4138,89 +4131,89 @@
       <c r="G8" s="9" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="31" t="inlineStr">
+      <c r="A9" s="19" t="inlineStr">
         <is>
           <t>📫 Anstehend in Zukunft: Koordination</t>
         </is>
       </c>
-      <c r="B9" s="32" t="n"/>
-      <c r="C9" s="31" t="inlineStr">
+      <c r="B9" s="20" t="n"/>
+      <c r="C9" s="19" t="inlineStr">
         <is>
           <t>⏱ Review: Koordination</t>
         </is>
       </c>
-      <c r="D9" s="32" t="n"/>
-      <c r="E9" s="33" t="inlineStr">
+      <c r="D9" s="20" t="n"/>
+      <c r="E9" s="21" t="inlineStr">
         <is>
           <t>✅ Abgeschlossen: Koordination 🎉</t>
         </is>
       </c>
-      <c r="F9" s="34" t="n"/>
-      <c r="G9" s="22" t="n"/>
+      <c r="F9" s="22" t="n"/>
+      <c r="G9" s="36" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="10">
-      <c r="A10" s="31" t="inlineStr">
+      <c r="A10" s="19" t="inlineStr">
         <is>
           <t>📝 In Bearbeitung: Koordination</t>
         </is>
       </c>
-      <c r="B10" s="32" t="n"/>
-      <c r="C10" s="31" t="n"/>
-      <c r="D10" s="32" t="n"/>
-      <c r="E10" s="31" t="n"/>
-      <c r="F10" s="32" t="n"/>
+      <c r="B10" s="20" t="n"/>
+      <c r="C10" s="19" t="n"/>
+      <c r="D10" s="20" t="n"/>
+      <c r="E10" s="19" t="n"/>
+      <c r="F10" s="20" t="n"/>
       <c r="G10" s="9" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="31" t="inlineStr">
+      <c r="A11" s="19" t="inlineStr">
         <is>
           <t>📫 Anstehend diese Woche: Koordination</t>
         </is>
       </c>
-      <c r="B11" s="32" t="n"/>
-      <c r="C11" s="31" t="n"/>
-      <c r="D11" s="32" t="n"/>
-      <c r="E11" s="31" t="n"/>
-      <c r="F11" s="32" t="n"/>
-      <c r="G11" s="22" t="n"/>
+      <c r="B11" s="20" t="n"/>
+      <c r="C11" s="19" t="n"/>
+      <c r="D11" s="20" t="n"/>
+      <c r="E11" s="19" t="n"/>
+      <c r="F11" s="20" t="n"/>
+      <c r="G11" s="36" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="12">
-      <c r="A12" s="31" t="n"/>
-      <c r="B12" s="32" t="n"/>
-      <c r="C12" s="31" t="n"/>
-      <c r="D12" s="32" t="n"/>
-      <c r="E12" s="31" t="n"/>
-      <c r="F12" s="32" t="n"/>
+      <c r="A12" s="19" t="n"/>
+      <c r="B12" s="20" t="n"/>
+      <c r="C12" s="19" t="n"/>
+      <c r="D12" s="20" t="n"/>
+      <c r="E12" s="19" t="n"/>
+      <c r="F12" s="20" t="n"/>
       <c r="G12" s="9" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="35" t="n"/>
-      <c r="B13" s="36" t="n"/>
-      <c r="C13" s="35" t="n"/>
-      <c r="D13" s="36" t="n"/>
-      <c r="E13" s="35" t="n"/>
-      <c r="F13" s="36" t="n"/>
-      <c r="G13" s="22" t="n"/>
+      <c r="A13" s="23" t="n"/>
+      <c r="B13" s="24" t="n"/>
+      <c r="C13" s="23" t="n"/>
+      <c r="D13" s="24" t="n"/>
+      <c r="E13" s="23" t="n"/>
+      <c r="F13" s="24" t="n"/>
+      <c r="G13" s="36" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="70" r="14" s="4">
-      <c r="A14" s="37" t="inlineStr">
+      <c r="A14" s="39" t="inlineStr">
         <is>
           <t>Aktiv, da hier Karten in Planung oder Bearbeitung sind. Z.B.: Anstehend, In Bearbeitung, ToDo</t>
         </is>
       </c>
-      <c r="B14" s="38" t="n"/>
-      <c r="C14" s="37" t="inlineStr">
+      <c r="B14" s="40" t="n"/>
+      <c r="C14" s="39" t="inlineStr">
         <is>
           <t>Semifinal, da es hier nichts aktiv zu tun gibt, die Karte aber noch nicht beendet ist. Z.B.: Review, Testing</t>
         </is>
       </c>
-      <c r="D14" s="38" t="n"/>
-      <c r="E14" s="37" t="inlineStr">
+      <c r="D14" s="40" t="n"/>
+      <c r="E14" s="39" t="inlineStr">
         <is>
           <t>Final, da diese Karte abgeschlossen ist. Z.B.: Done</t>
         </is>
       </c>
-      <c r="F14" s="38" t="n"/>
+      <c r="F14" s="40" t="n"/>
       <c r="G14" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="20" r="16">
@@ -4229,7 +4222,7 @@
           <t>Aktiv</t>
         </is>
       </c>
-      <c r="B16" s="22" t="n"/>
+      <c r="B16" s="36" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="17">
       <c r="B17" s="7" t="inlineStr">
@@ -4237,15 +4230,15 @@
           <t xml:space="preserve">📫Evaluierte Karten: </t>
         </is>
       </c>
-      <c r="C17" s="16" t="n">
+      <c r="C17" s="14" t="n">
         <v>38</v>
       </c>
-      <c r="F17" s="19" t="inlineStr">
+      <c r="F17" s="15" t="inlineStr">
         <is>
           <t>Aktiv</t>
         </is>
       </c>
-      <c r="G17" s="19" t="n">
+      <c r="G17" s="33" t="n">
         <v>18</v>
       </c>
     </row>
@@ -4255,167 +4248,189 @@
           <t>✍️Erstellte Karten:</t>
         </is>
       </c>
-      <c r="C18" s="16" t="inlineStr">
+      <c r="C18" s="14" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="D18" s="19" t="inlineStr">
+      <c r="D18" s="15" t="inlineStr">
         <is>
           <t>(im betrachteten Zeitraum)</t>
         </is>
       </c>
-      <c r="F18" s="19" t="inlineStr">
+      <c r="F18" s="15" t="inlineStr">
         <is>
           <t>Semifinal</t>
         </is>
       </c>
-      <c r="G18" s="19" t="n">
+      <c r="G18" s="33" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="19" t="inlineStr">
-        <is>
-          <t>Bewegte Karten:</t>
-        </is>
-      </c>
-      <c r="C19" s="17" t="inlineStr">
+      <c r="C19" s="7" t="inlineStr">
+        <is>
+          <t>Bewegungen:</t>
+        </is>
+      </c>
+      <c r="D19" s="27" t="inlineStr">
         <is>
           <t>119</t>
         </is>
       </c>
-      <c r="F19" s="19" t="inlineStr">
+      <c r="F19" s="15" t="inlineStr">
         <is>
           <t>Final</t>
         </is>
       </c>
-      <c r="G19" s="19" t="n">
+      <c r="G19" s="33" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="19" t="inlineStr">
+      <c r="A20" s="15" t="inlineStr">
         <is>
           <t>Rückwärts</t>
         </is>
       </c>
-      <c r="B20" s="19" t="inlineStr">
+      <c r="B20" s="15" t="inlineStr">
         <is>
           <t>Vorwärts</t>
         </is>
       </c>
-      <c r="C20" s="18" t="inlineStr">
-        <is>
-          <t>18.4%</t>
-        </is>
-      </c>
-      <c r="D20" s="14" t="n"/>
+      <c r="C20" s="7" t="inlineStr">
+        <is>
+          <t>Auf</t>
+        </is>
+      </c>
+      <c r="D20" s="26" t="inlineStr">
+        <is>
+          <t>18.4% der Karten</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="19" t="n">
+      <c r="A21" s="15" t="n">
         <v>36</v>
       </c>
-      <c r="B21" s="19" t="n">
+      <c r="B21" s="15" t="n">
         <v>83</v>
       </c>
-    </row>
+      <c r="C21" s="34" t="inlineStr">
+        <is>
+          <t>Bewegungen von Karten entgegen der definierten Richtung sind zu reduzieren. Du kannst Karten alte Karten kopieren anstelle diese für neue Aufgaben zu modifizieren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="25">
+        <f>A21/D19</f>
+        <v/>
+      </c>
+      <c r="B22" s="25">
+        <f>B21/D19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
     <row r="26">
-      <c r="A26" s="20" t="inlineStr">
+      <c r="A26" s="16" t="inlineStr">
         <is>
           <t>Karten ohne Aktivität</t>
         </is>
       </c>
-      <c r="B26" s="30" t="n"/>
-      <c r="C26" s="19" t="n"/>
-      <c r="D26" s="19" t="n"/>
-      <c r="E26" s="19" t="n"/>
-      <c r="F26" s="19" t="n"/>
-      <c r="G26" s="19" t="n"/>
+      <c r="B26" s="33" t="n"/>
+      <c r="C26" s="15" t="n"/>
+      <c r="D26" s="15" t="n"/>
+      <c r="E26" s="15" t="n"/>
+      <c r="F26" s="15" t="n"/>
+      <c r="G26" s="15" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="19" t="n"/>
-      <c r="B27" s="19" t="inlineStr">
+      <c r="A27" s="15" t="n"/>
+      <c r="B27" s="15" t="inlineStr">
         <is>
           <t>Jahres-Meeting 💩</t>
         </is>
       </c>
-      <c r="C27" s="19" t="n">
+      <c r="C27" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="D27" s="19" t="n"/>
-      <c r="E27" s="30" t="n"/>
-      <c r="F27" s="19" t="n"/>
-      <c r="G27" s="19" t="n"/>
+      <c r="D27" s="15" t="n"/>
+      <c r="E27" s="33" t="n"/>
+      <c r="F27" s="15" t="n"/>
+      <c r="G27" s="15" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="19" t="n"/>
-      <c r="B28" s="19" t="inlineStr">
+      <c r="A28" s="15" t="n"/>
+      <c r="B28" s="15" t="inlineStr">
         <is>
           <t>Team stärken - Nutrición Escolar ⭐️</t>
         </is>
       </c>
-      <c r="C28" s="19" t="n">
-        <v>18</v>
-      </c>
-      <c r="D28" s="19" t="n"/>
-      <c r="E28" s="30" t="n"/>
-      <c r="F28" s="19" t="n"/>
-      <c r="G28" s="19" t="n"/>
+      <c r="C28" s="15" t="n">
+        <v>19</v>
+      </c>
+      <c r="D28" s="15" t="n"/>
+      <c r="E28" s="33" t="n"/>
+      <c r="F28" s="15" t="n"/>
+      <c r="G28" s="15" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="19" t="n"/>
-      <c r="B29" s="19" t="inlineStr">
+      <c r="A29" s="15" t="n"/>
+      <c r="B29" s="15" t="inlineStr">
         <is>
           <t>Finanzfeedback an #projekte ⭐️</t>
         </is>
       </c>
-      <c r="C29" s="19" t="n">
+      <c r="C29" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="D29" s="19" t="n"/>
-      <c r="E29" s="30" t="n"/>
-      <c r="F29" s="19" t="n"/>
-      <c r="G29" s="19" t="n"/>
+      <c r="D29" s="15" t="n"/>
+      <c r="E29" s="33" t="n"/>
+      <c r="F29" s="15" t="n"/>
+      <c r="G29" s="15" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="19" t="n"/>
-      <c r="B30" s="19" t="inlineStr">
+      <c r="A30" s="15" t="n"/>
+      <c r="B30" s="15" t="inlineStr">
         <is>
           <t>Projektseiten - Google Sites</t>
         </is>
       </c>
-      <c r="C30" s="19" t="n">
+      <c r="C30" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="D30" s="19" t="n"/>
-      <c r="E30" s="30" t="n"/>
-      <c r="F30" s="19" t="n"/>
-      <c r="G30" s="19" t="n"/>
+      <c r="D30" s="15" t="n"/>
+      <c r="E30" s="33" t="n"/>
+      <c r="F30" s="15" t="n"/>
+      <c r="G30" s="15" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="19" t="n"/>
-      <c r="B31" s="19" t="inlineStr">
+      <c r="A31" s="15" t="n"/>
+      <c r="B31" s="15" t="inlineStr">
         <is>
           <t>Personalwechsel FS in Projektkoordination ⭐️</t>
         </is>
       </c>
-      <c r="C31" s="19" t="n">
+      <c r="C31" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="D31" s="19" t="n"/>
-      <c r="E31" s="30" t="n"/>
-      <c r="F31" s="19" t="n"/>
-      <c r="G31" s="19" t="n"/>
+      <c r="D31" s="15" t="n"/>
+      <c r="E31" s="33" t="n"/>
+      <c r="F31" s="15" t="n"/>
+      <c r="G31" s="15" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="19" t="n"/>
-      <c r="B32" s="19" t="n"/>
-      <c r="C32" s="19" t="n"/>
-      <c r="D32" s="19" t="n"/>
-      <c r="E32" s="19" t="n"/>
-      <c r="F32" s="19" t="n"/>
-      <c r="G32" s="19" t="n"/>
+      <c r="A32" s="15" t="n"/>
+      <c r="B32" s="15" t="n"/>
+      <c r="C32" s="15" t="n"/>
+      <c r="D32" s="15" t="n"/>
+      <c r="E32" s="15" t="n"/>
+      <c r="F32" s="15" t="n"/>
+      <c r="G32" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="20" r="33">
       <c r="A33" s="6" t="inlineStr">
@@ -4425,7 +4440,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="20" t="inlineStr">
+      <c r="A34" s="16" t="inlineStr">
         <is>
           <t>Aktivste Mitglieder</t>
         </is>
@@ -4450,7 +4465,7 @@
           <t>Micha Landoll</t>
         </is>
       </c>
-      <c r="C35" s="19" t="n">
+      <c r="C35" s="15" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4465,7 +4480,7 @@
           <t>Noah Brechmann</t>
         </is>
       </c>
-      <c r="C36" s="19" t="n">
+      <c r="C36" s="15" t="n">
         <v>18</v>
       </c>
     </row>
@@ -4480,7 +4495,7 @@
           <t>Valentin Buchenroth</t>
         </is>
       </c>
-      <c r="C37" s="19" t="n">
+      <c r="C37" s="15" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4495,7 +4510,7 @@
           <t>Jonas Ullmann</t>
         </is>
       </c>
-      <c r="C38" s="19" t="n">
+      <c r="C38" s="15" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4510,7 +4525,7 @@
           <t>Marie-Sophie Braun</t>
         </is>
       </c>
-      <c r="C39" s="19" t="n">
+      <c r="C39" s="15" t="n">
         <v>2</v>
       </c>
       <c r="E39" t="inlineStr">
@@ -4518,17 +4533,20 @@
           <t>Micha Landoll</t>
         </is>
       </c>
-      <c r="F39" s="19" t="n">
+      <c r="F39" s="15" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="40">
+      <c r="C40" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>Noah Brechmann</t>
         </is>
       </c>
-      <c r="F40" s="19" t="n">
+      <c r="F40" s="15" t="n">
         <v>15</v>
       </c>
     </row>
@@ -4538,7 +4556,7 @@
           <t>Valentin Buchenroth</t>
         </is>
       </c>
-      <c r="F41" s="19" t="n">
+      <c r="F41" s="15" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4548,7 +4566,7 @@
           <t>Jonas Ullmann</t>
         </is>
       </c>
-      <c r="F42" s="19" t="n">
+      <c r="F42" s="15" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4558,7 +4576,7 @@
           <t>Marie-Sophie Braun</t>
         </is>
       </c>
-      <c r="F43" s="19" t="n">
+      <c r="F43" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4570,7 +4588,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="20" t="inlineStr">
+      <c r="A47" s="16" t="inlineStr">
         <is>
           <t>Meiste Abgeschlossene Karten</t>
         </is>
@@ -4587,7 +4605,7 @@
           <t>Noah Brechmann</t>
         </is>
       </c>
-      <c r="C48" s="19" t="n">
+      <c r="C48" s="15" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4602,7 +4620,7 @@
           <t>Micha Landoll</t>
         </is>
       </c>
-      <c r="C49" s="19" t="n">
+      <c r="C49" s="15" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4617,10 +4635,10 @@
           <t>Jonas Ullmann</t>
         </is>
       </c>
-      <c r="C50" s="19" t="n">
+      <c r="C50" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="E50" s="19" t="inlineStr">
+      <c r="E50" s="15" t="inlineStr">
         <is>
           <t>Noah Brechmann</t>
         </is>
@@ -4640,7 +4658,7 @@
           <t>Valentin Buchenroth</t>
         </is>
       </c>
-      <c r="C51" s="19" t="n">
+      <c r="C51" s="15" t="n">
         <v>1</v>
       </c>
       <c r="E51" t="inlineStr">
@@ -4663,7 +4681,7 @@
           <t>Marie-Sophie Braun</t>
         </is>
       </c>
-      <c r="C52" s="19" t="n">
+      <c r="C52" s="15" t="n">
         <v>1</v>
       </c>
       <c r="E52" t="inlineStr">
@@ -4703,15 +4721,15 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="19" t="inlineStr">
+      <c r="A60" s="15" t="inlineStr">
         <is>
           <t>Noah Brechmann</t>
         </is>
       </c>
-      <c r="B60" s="19" t="n">
+      <c r="B60" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="F60" s="19" t="inlineStr">
+      <c r="F60" s="15" t="inlineStr">
         <is>
           <t>Finale Karten</t>
         </is>
@@ -4726,10 +4744,10 @@
           <t>Micha Landoll</t>
         </is>
       </c>
-      <c r="B61" s="19" t="n">
+      <c r="B61" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="F61" s="19" t="inlineStr">
+      <c r="F61" s="15" t="inlineStr">
         <is>
           <t>Pünktlich</t>
         </is>
@@ -4744,26 +4762,26 @@
           <t>Jonas Ullmann</t>
         </is>
       </c>
-      <c r="B62" s="19" t="n">
+      <c r="B62" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="F62" s="19" t="inlineStr">
+      <c r="F62" s="15" t="inlineStr">
         <is>
           <t>Nicht Pünktlich</t>
         </is>
       </c>
-      <c r="G62" s="15">
+      <c r="G62" s="13">
         <f>G60-G61</f>
         <v/>
       </c>
     </row>
     <row r="63">
-      <c r="B63" s="19" t="n">
+      <c r="B63" s="15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="B64" s="19" t="n">
+      <c r="B64" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4775,7 +4793,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="19" t="inlineStr">
+      <c r="A70" s="15" t="inlineStr">
         <is>
           <t>Alle Karten</t>
         </is>
@@ -4793,7 +4811,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="19" t="inlineStr">
+      <c r="A71" s="15" t="inlineStr">
         <is>
           <t>Sterne</t>
         </is>
@@ -4811,7 +4829,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="19" t="inlineStr">
+      <c r="A72" s="15" t="inlineStr">
         <is>
           <t>Okay</t>
         </is>
@@ -4826,7 +4844,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="19" t="inlineStr">
+      <c r="A73" s="15" t="inlineStr">
         <is>
           <t>Shit</t>
         </is>
@@ -4853,8 +4871,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" s="35" t="inlineStr">
+        <is>
+          <t>Stern, wenn sie alle drei Qualitätsmerkmale einer Karte erfüllt sind: Beschreibung, Stichtag und Verantwortlichkeit. Einen Shit-Haufen kommt, wenn nur ein Merkmal oder weniger erfüllt ist.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="C21:E25"/>
+    <mergeCell ref="A77:G77"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>

--- a/report_folder/report_4.1.a_projektkoordination.xlsx
+++ b/report_folder/report_4.1.a_projektkoordination.xlsx
@@ -18,7 +18,7 @@
   <numFmts count="1">
     <numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" numFmtId="164"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -94,6 +94,12 @@
     </font>
     <font>
       <name val="Avenir Next Condensed Medium"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Avenir Next Condensed Regular"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="12"/>
@@ -232,7 +238,7 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="43"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -289,20 +295,11 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -322,8 +319,23 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="9" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -712,26 +724,49 @@
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
+        <varyColors val="1"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
-              <a:srgbClr val="3091BD"/>
-            </a:solidFill>
             <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <invertIfNegative val="0"/>
           <dPt>
+            <idx val="0"/>
+            <invertIfNegative val="0"/>
+            <bubble3D val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="3091BD"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
             <idx val="1"/>
             <invertIfNegative val="0"/>
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="3091BD"/>
+                <a:srgbClr val="4FA1C7"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="2"/>
+            <invertIfNegative val="0"/>
+            <bubble3D val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="6EB2D1"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -744,7 +779,7 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="3091BD"/>
+                <a:srgbClr val="8DC3DC"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -757,7 +792,7 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="3091BD"/>
+                <a:srgbClr val="ACD3E5"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -779,6 +814,21 @@
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="5"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>0</v>
+                </pt>
+                <pt idx="2">
+                  <v>0</v>
+                </pt>
+                <pt idx="3">
+                  <v>0</v>
+                </pt>
+                <pt idx="4">
+                  <v>0</v>
+                </pt>
               </numCache>
             </numRef>
           </val>
@@ -924,30 +974,38 @@
       <barChart>
         <barDir val="bar"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
+        <varyColors val="1"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
-              <a:srgbClr val="3091BD"/>
-            </a:solidFill>
             <a:ln>
-              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <invertIfNegative val="0"/>
           <dPt>
+            <idx val="0"/>
+            <invertIfNegative val="0"/>
+            <bubble3D val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="3091BD"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
             <idx val="1"/>
             <invertIfNegative val="0"/>
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="3091BD"/>
+                <a:srgbClr val="4FA1C7"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -958,10 +1016,9 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="3091BD"/>
+                <a:srgbClr val="6EB2D1"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -972,10 +1029,9 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="3091BD"/>
+                <a:srgbClr val="8DC3DC"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -986,10 +1042,9 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="3091BD"/>
+                <a:srgbClr val="ACD3E5"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1083,7 +1138,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900">
+              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="800">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1444,7 +1499,7 @@
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
+        <varyColors val="1"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
@@ -1463,7 +1518,6 @@
                 <a:srgbClr val="3091BD"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1474,10 +1528,9 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="3091BD"/>
+                <a:srgbClr val="4FA1C7"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1488,10 +1541,9 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="3091BD"/>
+                <a:srgbClr val="6EB2D1"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1502,10 +1554,9 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="3091BD"/>
+                <a:srgbClr val="8DC3DC"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1516,10 +1567,9 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="3091BD"/>
+                <a:srgbClr val="ACD3E5"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1760,27 +1810,37 @@
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
+        <varyColors val="1"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFAA3A"/>
-            </a:solidFill>
             <a:ln>
-              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <invertIfNegative val="0"/>
           <dPt>
+            <idx val="0"/>
+            <invertIfNegative val="0"/>
+            <bubble3D val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFAA3A"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
             <idx val="1"/>
             <invertIfNegative val="0"/>
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="FFAA3A"/>
+                <a:srgbClr val="FFB657"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1794,7 +1854,7 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="FFAA3A"/>
+                <a:srgbClr val="FFC475"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1808,7 +1868,7 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="FFAA3A"/>
+                <a:srgbClr val="FFD193"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1822,7 +1882,7 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="FFAA3A"/>
+                <a:srgbClr val="FDDCB0"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2065,27 +2125,37 @@
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
+        <varyColors val="1"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
-              <a:srgbClr val="64AA72"/>
-            </a:solidFill>
             <a:ln>
-              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <invertIfNegative val="0"/>
           <dPt>
+            <idx val="0"/>
+            <invertIfNegative val="0"/>
+            <bubble3D val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="64AA72"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
             <idx val="1"/>
             <invertIfNegative val="0"/>
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="64AA72"/>
+                <a:srgbClr val="7BB787"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2099,7 +2169,7 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="64AA72"/>
+                <a:srgbClr val="92C39C"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2113,7 +2183,7 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="64AA72"/>
+                <a:srgbClr val="AAD0B2"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2127,7 +2197,7 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="64AA72"/>
+                <a:srgbClr val="C2DEC8"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2150,6 +2220,21 @@
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="5"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>0</v>
+                </pt>
+                <pt idx="2">
+                  <v>0</v>
+                </pt>
+                <pt idx="3">
+                  <v>0</v>
+                </pt>
+                <pt idx="4">
+                  <v>0</v>
+                </pt>
               </numCache>
             </numRef>
           </val>
@@ -2355,27 +2440,37 @@
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
+        <varyColors val="1"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFAA3A"/>
-            </a:solidFill>
             <a:ln>
-              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <invertIfNegative val="0"/>
           <dPt>
+            <idx val="0"/>
+            <invertIfNegative val="0"/>
+            <bubble3D val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFAA3A"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
             <idx val="1"/>
             <invertIfNegative val="0"/>
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="FFAA3A"/>
+                <a:srgbClr val="FFB657"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2389,7 +2484,7 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="FFAA3A"/>
+                <a:srgbClr val="FFC475"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2403,7 +2498,7 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="FFAA3A"/>
+                <a:srgbClr val="FFD193"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2417,7 +2512,7 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="FFAA3A"/>
+                <a:srgbClr val="FDDCB0"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2794,6 +2889,9 @@
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="3"/>
+                <pt idx="1">
+                  <v>0</v>
+                </pt>
               </numCache>
             </numRef>
           </val>
@@ -2929,26 +3027,36 @@
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
+        <varyColors val="1"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
-              <a:srgbClr val="64AA72"/>
-            </a:solidFill>
             <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <invertIfNegative val="0"/>
           <dPt>
+            <idx val="0"/>
+            <invertIfNegative val="0"/>
+            <bubble3D val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="64AA72"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
             <idx val="1"/>
             <invertIfNegative val="0"/>
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="64AA72"/>
+                <a:srgbClr val="7BB787"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -2961,7 +3069,7 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="64AA72"/>
+                <a:srgbClr val="92C39C"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -2974,7 +3082,7 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="64AA72"/>
+                <a:srgbClr val="AAD0B2"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -2987,7 +3095,7 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="64AA72"/>
+                <a:srgbClr val="C2DEC8"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -3482,13 +3590,13 @@
       <col>0</col>
       <colOff>0</colOff>
       <row>34</row>
-      <rowOff>60965</rowOff>
+      <rowOff>5</rowOff>
     </from>
     <to>
       <col>3</col>
       <colOff>9407</colOff>
       <row>45</row>
-      <rowOff>60960</rowOff>
+      <rowOff>0</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -3562,14 +3670,14 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>46</row>
-      <rowOff>18815</rowOff>
+      <row>45</row>
+      <rowOff>252495</rowOff>
     </from>
     <to>
       <col>3</col>
       <colOff>9407</colOff>
-      <row>57</row>
-      <rowOff>18810</rowOff>
+      <row>56</row>
+      <rowOff>211850</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -3588,13 +3696,13 @@
   <twoCellAnchor>
     <from>
       <col>0</col>
-      <colOff>18815</colOff>
+      <colOff>0</colOff>
       <row>68</row>
       <rowOff>11288</rowOff>
     </from>
     <to>
       <col>2</col>
-      <colOff>37629</colOff>
+      <colOff>18814</colOff>
       <row>75</row>
       <rowOff>206963</rowOff>
     </to>
@@ -4026,8 +4134,8 @@
   </sheetPr>
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" view="pageLayout" workbookViewId="0" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" zoomScaleSheetLayoutView="100">
-      <selection activeCell="G60" sqref="G60:G62"/>
+    <sheetView tabSelected="1" topLeftCell="A17" view="pageLayout" workbookViewId="0" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" zoomScaleSheetLayoutView="100">
+      <selection activeCell="A77" sqref="A77:G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -4038,7 +4146,7 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="34" r="1">
-      <c r="A1" s="33" t="inlineStr">
+      <c r="A1" s="30" t="inlineStr">
         <is>
           <t>Work-Report Trello</t>
         </is>
@@ -4054,7 +4162,7 @@
           <t>Infos</t>
         </is>
       </c>
-      <c r="B2" s="36" t="inlineStr">
+      <c r="B2" s="33" t="inlineStr">
         <is>
           <t>Projektkoordination AS</t>
         </is>
@@ -4062,7 +4170,7 @@
       <c r="G2" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="58" r="3">
-      <c r="A3" s="35" t="inlineStr">
+      <c r="A3" s="32" t="inlineStr">
         <is>
           <t>Der Report zeigt, wie du mit der Trello-Software arbeitest und hilft dir dabei, gezielter damit umzugehen. 
 Für Feedback und Fragen zum Tool melde dich bei Micha Landoll (m.landoll@aktion-sodis.org).</t>
@@ -4070,7 +4178,7 @@
       </c>
     </row>
     <row customHeight="1" ht="126" r="4">
-      <c r="A4" s="34" t="inlineStr">
+      <c r="A4" s="31" t="inlineStr">
         <is>
           <t>Der Bericht zeigt wie aktiv, zuverlässig, pünktlich, ausführlich und gemeinschaftlich dein Team mit Trello-Karten arbeitet.
 Aktiv heißt: Anzahl erstellter &amp; bewegter Karten
@@ -4082,7 +4190,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="37" t="n"/>
+      <c r="B5" s="34" t="n"/>
     </row>
     <row customHeight="1" ht="20" r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -4093,12 +4201,12 @@
       <c r="G6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="38" t="inlineStr">
+      <c r="A7" s="35" t="inlineStr">
         <is>
           <t>Zeitraum:</t>
         </is>
       </c>
-      <c r="B7" s="30" t="inlineStr">
+      <c r="B7" s="39" t="inlineStr">
         <is>
           <t>30 Tage</t>
         </is>
@@ -4108,7 +4216,7 @@
           <t>Rankinglänge:</t>
         </is>
       </c>
-      <c r="F7" s="30" t="inlineStr">
+      <c r="F7" s="39" t="inlineStr">
         <is>
           <t>5 Einträge</t>
         </is>
@@ -4154,7 +4262,7 @@
         </is>
       </c>
       <c r="F9" s="21" t="n"/>
-      <c r="G9" s="30" t="n"/>
+      <c r="G9" s="39" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="10">
       <c r="A10" s="18" t="inlineStr">
@@ -4180,7 +4288,7 @@
       <c r="D11" s="19" t="n"/>
       <c r="E11" s="18" t="n"/>
       <c r="F11" s="19" t="n"/>
-      <c r="G11" s="30" t="n"/>
+      <c r="G11" s="39" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="12">
       <c r="A12" s="18" t="n"/>
@@ -4198,27 +4306,27 @@
       <c r="D13" s="23" t="n"/>
       <c r="E13" s="22" t="n"/>
       <c r="F13" s="23" t="n"/>
-      <c r="G13" s="30" t="n"/>
+      <c r="G13" s="39" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="70" r="14" s="4">
-      <c r="A14" s="40" t="inlineStr">
+      <c r="A14" s="42" t="inlineStr">
         <is>
           <t>Aktiv, da hier Karten in Planung oder Bearbeitung sind. Z.B.: Anstehend, In Bearbeitung, ToDo</t>
         </is>
       </c>
-      <c r="B14" s="41" t="n"/>
-      <c r="C14" s="40" t="inlineStr">
+      <c r="B14" s="43" t="n"/>
+      <c r="C14" s="42" t="inlineStr">
         <is>
           <t>Semifinal, da es hier nichts aktiv zu tun gibt, die Karte aber noch nicht beendet ist. Z.B.: Review, Testing</t>
         </is>
       </c>
-      <c r="D14" s="41" t="n"/>
-      <c r="E14" s="40" t="inlineStr">
+      <c r="D14" s="43" t="n"/>
+      <c r="E14" s="42" t="inlineStr">
         <is>
           <t>Final, da diese Karte abgeschlossen ist. Z.B.: Done</t>
         </is>
       </c>
-      <c r="F14" s="41" t="n"/>
+      <c r="F14" s="43" t="n"/>
       <c r="G14" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="20" r="16">
@@ -4227,7 +4335,7 @@
           <t>Aktiv</t>
         </is>
       </c>
-      <c r="B16" s="30" t="n"/>
+      <c r="B16" s="39" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="17">
       <c r="B17" s="7" t="inlineStr">
@@ -4243,7 +4351,7 @@
           <t>Aktiv</t>
         </is>
       </c>
-      <c r="G17" s="38" t="n">
+      <c r="G17" s="35" t="n">
         <v>18</v>
       </c>
     </row>
@@ -4268,7 +4376,7 @@
           <t>Semifinal</t>
         </is>
       </c>
-      <c r="G18" s="38" t="n">
+      <c r="G18" s="35" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4288,7 +4396,7 @@
           <t>Final</t>
         </is>
       </c>
-      <c r="G19" s="38" t="n">
+      <c r="G19" s="35" t="n">
         <v>15</v>
       </c>
     </row>
@@ -4321,7 +4429,7 @@
       <c r="B21" s="14" t="n">
         <v>83</v>
       </c>
-      <c r="C21" s="28" t="inlineStr">
+      <c r="C21" s="36" t="inlineStr">
         <is>
           <t>Bewegungen von Karten entgegen der definierten Richtung sind zu reduzieren. Du kannst Karten alte Karten kopieren anstelle diese für neue Aufgaben zu modifizieren.</t>
         </is>
@@ -4346,7 +4454,7 @@
           <t>Karten ohne Aktivität</t>
         </is>
       </c>
-      <c r="B26" s="38" t="n"/>
+      <c r="B26" s="35" t="n"/>
       <c r="C26" s="14" t="n"/>
       <c r="D26" s="14" t="n"/>
       <c r="E26" s="14" t="n"/>
@@ -4364,7 +4472,7 @@
         <v>20</v>
       </c>
       <c r="D27" s="14" t="n"/>
-      <c r="E27" s="38" t="n"/>
+      <c r="E27" s="35" t="n"/>
       <c r="F27" s="14" t="n"/>
       <c r="G27" s="14" t="n"/>
     </row>
@@ -4379,7 +4487,7 @@
         <v>19</v>
       </c>
       <c r="D28" s="14" t="n"/>
-      <c r="E28" s="38" t="n"/>
+      <c r="E28" s="35" t="n"/>
       <c r="F28" s="14" t="n"/>
       <c r="G28" s="14" t="n"/>
     </row>
@@ -4391,10 +4499,10 @@
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D29" s="14" t="n"/>
-      <c r="E29" s="38" t="n"/>
+      <c r="E29" s="35" t="n"/>
       <c r="F29" s="14" t="n"/>
       <c r="G29" s="14" t="n"/>
     </row>
@@ -4409,7 +4517,7 @@
         <v>8</v>
       </c>
       <c r="D30" s="14" t="n"/>
-      <c r="E30" s="38" t="n"/>
+      <c r="E30" s="35" t="n"/>
       <c r="F30" s="14" t="n"/>
       <c r="G30" s="14" t="n"/>
     </row>
@@ -4424,7 +4532,7 @@
         <v>8</v>
       </c>
       <c r="D31" s="14" t="n"/>
-      <c r="E31" s="38" t="n"/>
+      <c r="E31" s="35" t="n"/>
       <c r="F31" s="14" t="n"/>
       <c r="G31" s="14" t="n"/>
     </row>
@@ -4543,9 +4651,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="C40" s="14" t="n">
-        <v>0</v>
-      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>Noah Brechmann</t>
@@ -4671,7 +4776,7 @@
           <t>Micha Landoll</t>
         </is>
       </c>
-      <c r="F51" t="n">
+      <c r="F51" s="14" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4694,7 +4799,7 @@
           <t>Valentin Buchenroth</t>
         </is>
       </c>
-      <c r="F52" t="n">
+      <c r="F52" s="14" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4704,7 +4809,7 @@
           <t>Maria Lütticke</t>
         </is>
       </c>
-      <c r="F53" t="n">
+      <c r="F53" s="14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4714,8 +4819,13 @@
           <t>Jonas Ullmann</t>
         </is>
       </c>
-      <c r="F54" t="n">
+      <c r="F54" s="14" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="F55" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="58">
@@ -4739,7 +4849,7 @@
           <t>Finale Karten</t>
         </is>
       </c>
-      <c r="G60" s="38" t="n">
+      <c r="G60" s="35" t="n">
         <v>15</v>
       </c>
     </row>
@@ -4757,7 +4867,7 @@
           <t>Pünktlich</t>
         </is>
       </c>
-      <c r="G61" s="38" t="n">
+      <c r="G61" s="35" t="n">
         <v>11</v>
       </c>
     </row>
@@ -4775,7 +4885,7 @@
           <t>Nicht Pünktlich</t>
         </is>
       </c>
-      <c r="G62" s="39">
+      <c r="G62" s="28">
         <f>G60-G61</f>
         <v/>
       </c>
@@ -4790,6 +4900,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="65">
+      <c r="B65" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row customHeight="1" ht="20" r="68">
       <c r="A68" s="6" t="inlineStr">
         <is>
@@ -4811,7 +4926,7 @@
           <t>Micha Landoll</t>
         </is>
       </c>
-      <c r="G70" t="n">
+      <c r="G70" s="35" t="n">
         <v>13</v>
       </c>
     </row>
@@ -4829,7 +4944,7 @@
           <t>Noah Brechmann</t>
         </is>
       </c>
-      <c r="G71" t="n">
+      <c r="G71" s="35" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4839,12 +4954,16 @@
           <t>Okay</t>
         </is>
       </c>
+      <c r="B72" s="14">
+        <f>B70-B71-B73</f>
+        <v/>
+      </c>
       <c r="F72" t="inlineStr">
         <is>
           <t>Valentin Buchenroth</t>
         </is>
       </c>
-      <c r="G72" t="n">
+      <c r="G72" s="35" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4862,7 +4981,7 @@
           <t>Jonas Ullmann</t>
         </is>
       </c>
-      <c r="G73" t="n">
+      <c r="G73" s="35" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4872,30 +4991,30 @@
           <t>Maria Lütticke</t>
         </is>
       </c>
-      <c r="G74" t="n">
+      <c r="G74" s="35" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="29" t="inlineStr">
-        <is>
-          <t>Stern, wenn sie alle drei Qualitätsmerkmale einer Karte erfüllt sind: Beschreibung, Stichtag und Verantwortlichkeit. Einen Shit-Haufen kommt, wenn nur ein Merkmal oder weniger erfüllt ist.</t>
+      <c r="A77" s="37" t="inlineStr">
+        <is>
+          <t>Stern, wenn Beschreibung, Stichtag und Verantwortlichkeit. Shit-Haufen, wenn ein Merkmal oder weniger.</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B5:G5"/>
     <mergeCell ref="C21:E25"/>
     <mergeCell ref="A77:G77"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <pageMargins bottom="0.787401575" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.787401575"/>
   <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>

--- a/report_folder/report_4.1.a_projektkoordination.xlsx
+++ b/report_folder/report_4.1.a_projektkoordination.xlsx
@@ -301,6 +301,24 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -318,24 +336,6 @@
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="9" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -660,315 +660,6 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin charset="0" panose="020B0506020202020204" pitchFamily="34" typeface="Avenir Next Condensed Medium"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" i="0" lang="de-DE">
-                <a:latin charset="0" panose="020B0506020202020204" pitchFamily="34" typeface="Avenir Next Condensed Medium"/>
-              </a:rPr>
-              <a:t>Sternkarten</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.3735357869562476"/>
-          <y val="0"/>
-        </manualLayout>
-      </layout>
-      <overlay val="0"/>
-      <spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </title>
-    <plotArea>
-      <layout>
-        <manualLayout>
-          <layoutTarget val="inner"/>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.08465173425329661"/>
-          <y val="0.1833933982331432"/>
-          <w val="0.8685028375519928"/>
-          <h val="0.4091425521238743"/>
-        </manualLayout>
-      </layout>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <varyColors val="1"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dPt>
-            <idx val="0"/>
-            <invertIfNegative val="0"/>
-            <bubble3D val="0"/>
-            <spPr>
-              <a:solidFill>
-                <a:srgbClr val="3091BD"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </dPt>
-          <dPt>
-            <idx val="1"/>
-            <invertIfNegative val="0"/>
-            <bubble3D val="0"/>
-            <spPr>
-              <a:solidFill>
-                <a:srgbClr val="4FA1C7"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </dPt>
-          <dPt>
-            <idx val="2"/>
-            <invertIfNegative val="0"/>
-            <bubble3D val="0"/>
-            <spPr>
-              <a:solidFill>
-                <a:srgbClr val="6EB2D1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </dPt>
-          <dPt>
-            <idx val="3"/>
-            <invertIfNegative val="0"/>
-            <bubble3D val="0"/>
-            <spPr>
-              <a:solidFill>
-                <a:srgbClr val="8DC3DC"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </dPt>
-          <dPt>
-            <idx val="4"/>
-            <invertIfNegative val="0"/>
-            <bubble3D val="0"/>
-            <spPr>
-              <a:solidFill>
-                <a:srgbClr val="ACD3E5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </dPt>
-          <cat>
-            <numRef>
-              <f>Tabelle1!$F$70:$F$74</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="5"/>
-              </numCache>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>Tabelle1!$G$70:$G$74</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-                <pt idx="1">
-                  <v>0</v>
-                </pt>
-                <pt idx="2">
-                  <v>0</v>
-                </pt>
-                <pt idx="3">
-                  <v>0</v>
-                </pt>
-                <pt idx="4">
-                  <v>0</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="0"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
-        <gapWidth val="20"/>
-        <axId val="1776243775"/>
-        <axId val="1776245407"/>
-      </barChart>
-      <catAx>
-        <axId val="1776243775"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <spPr>
-          <a:noFill/>
-          <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </spPr>
-        <txPr>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin charset="0" panose="020B0506020202020204" pitchFamily="34" typeface="Avenir Next Condensed"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </txPr>
-        <crossAx val="1776245407"/>
-        <crosses val="autoZero"/>
-        <auto val="1"/>
-        <lblAlgn val="ctr"/>
-        <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
-      </catAx>
-      <valAx>
-        <axId val="1776245407"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="l"/>
-        <majorGridlines>
-          <spPr>
-            <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </spPr>
-        </majorGridlines>
-        <numFmt formatCode="General" sourceLinked="0"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </spPr>
-        <txPr>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin charset="0" panose="020B0506020202020204" pitchFamily="34" typeface="Avenir Next Condensed"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </txPr>
-        <crossAx val="1776243775"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
-        <majorUnit val="2"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
     <plotArea>
       <layout/>
       <barChart>
@@ -1221,6 +912,292 @@
         <crossAx val="1776243775"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin charset="0" panose="020B0506020202020204" pitchFamily="34" typeface="Avenir Next Condensed Medium"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" i="0" lang="de-DE">
+                <a:latin charset="0" panose="020B0506020202020204" pitchFamily="34" typeface="Avenir Next Condensed Medium"/>
+              </a:rPr>
+              <a:t>Aktivste</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr b="0" baseline="0" i="0" lang="de-DE">
+                <a:latin charset="0" panose="020B0506020202020204" pitchFamily="34" typeface="Avenir Next Condensed Medium"/>
+              </a:rPr>
+              <a:t xml:space="preserve"> Helfer</a:t>
+            </a:r>
+            <a:endParaRPr b="0" i="0" lang="de-DE">
+              <a:latin charset="0" panose="020B0506020202020204" pitchFamily="34" typeface="Avenir Next Condensed Medium"/>
+            </a:endParaRPr>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="2"/>
+          <order val="0"/>
+          <spPr>
+            <a:solidFill>
+              <a:srgbClr val="64AA72"/>
+            </a:solidFill>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dPt>
+            <idx val="1"/>
+            <invertIfNegative val="0"/>
+            <bubble3D val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="7BB787"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="2"/>
+            <invertIfNegative val="0"/>
+            <bubble3D val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="92C39C"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="3"/>
+            <invertIfNegative val="0"/>
+            <bubble3D val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="AAD0B2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="4"/>
+            <invertIfNegative val="0"/>
+            <bubble3D val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="C2DEC8"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <cat>
+            <numRef>
+              <f>Tabelle1!$E$51:$E$55</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="5"/>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Tabelle1!$F$51:$F$55</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>0</v>
+                </pt>
+                <pt idx="2">
+                  <v>0</v>
+                </pt>
+                <pt idx="3">
+                  <v>0</v>
+                </pt>
+                <pt idx="4">
+                  <v>0</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="20"/>
+        <axId val="1776243775"/>
+        <axId val="1776245407"/>
+      </barChart>
+      <catAx>
+        <axId val="1776243775"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill/>
+          <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-2700000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin charset="0" panose="020B0506020202020204" pitchFamily="34" typeface="Avenir Next Condensed"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </txPr>
+        <crossAx val="1776245407"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="1776245407"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="General" sourceLinked="0"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin charset="0" panose="020B0506020202020204" pitchFamily="34" typeface="Avenir Next Condensed"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </txPr>
+        <crossAx val="1776243775"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+        <majorUnit val="2"/>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
@@ -2083,7 +2060,7 @@
               <a:rPr b="0" i="0" lang="de-DE">
                 <a:latin charset="0" panose="020B0506020202020204" pitchFamily="34" typeface="Avenir Next Condensed Medium"/>
               </a:rPr>
-              <a:t>Aktivste Helfer</a:t>
+              <a:t>Abgeschlossene Karten</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -2096,29 +2073,6 @@
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
-      <txPr>
-        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin charset="0" panose="020B0506020202020204" pitchFamily="34" typeface="Avenir Next Condensed Medium"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </txPr>
     </title>
     <plotArea>
       <layout/>
@@ -2141,7 +2095,7 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="64AA72"/>
+                <a:srgbClr val="FFAA3A"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2155,7 +2109,7 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="7BB787"/>
+                <a:srgbClr val="FFB657"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2169,7 +2123,7 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="92C39C"/>
+                <a:srgbClr val="FFC475"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2183,7 +2137,7 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="AAD0B2"/>
+                <a:srgbClr val="FFD193"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2197,7 +2151,7 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="C2DEC8"/>
+                <a:srgbClr val="FDDCB0"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2207,7 +2161,7 @@
           </dPt>
           <cat>
             <numRef>
-              <f>Tabelle1!$E$51:$E$55</f>
+              <f>Tabelle1!$B$48:$B$52</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="5"/>
@@ -2216,7 +2170,7 @@
           </cat>
           <val>
             <numRef>
-              <f>Tabelle1!$F$51:$F$55</f>
+              <f>Tabelle1!$C$48:$C$52</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="5"/>
@@ -2395,321 +2349,6 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" i="0" lang="de-DE">
-                <a:latin charset="0" panose="020B0506020202020204" pitchFamily="34" typeface="Avenir Next Condensed Medium"/>
-              </a:rPr>
-              <a:t>Abgeschlossene Karten</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-      <overlay val="0"/>
-      <spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-      <txPr>
-        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin charset="0" panose="020B0506020202020204" pitchFamily="34" typeface="Avenir Next Condensed Medium"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </txPr>
-    </title>
-    <plotArea>
-      <layout/>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <varyColors val="1"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dPt>
-            <idx val="0"/>
-            <invertIfNegative val="0"/>
-            <bubble3D val="0"/>
-            <spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFAA3A"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </dPt>
-          <dPt>
-            <idx val="1"/>
-            <invertIfNegative val="0"/>
-            <bubble3D val="0"/>
-            <spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFB657"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </dPt>
-          <dPt>
-            <idx val="2"/>
-            <invertIfNegative val="0"/>
-            <bubble3D val="0"/>
-            <spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC475"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </dPt>
-          <dPt>
-            <idx val="3"/>
-            <invertIfNegative val="0"/>
-            <bubble3D val="0"/>
-            <spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFD193"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </dPt>
-          <dPt>
-            <idx val="4"/>
-            <invertIfNegative val="0"/>
-            <bubble3D val="0"/>
-            <spPr>
-              <a:solidFill>
-                <a:srgbClr val="FDDCB0"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </dPt>
-          <cat>
-            <numRef>
-              <f>Tabelle1!$B$48:$B$52</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="5"/>
-              </numCache>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>Tabelle1!$C$48:$C$52</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-                <pt idx="1">
-                  <v>0</v>
-                </pt>
-                <pt idx="2">
-                  <v>0</v>
-                </pt>
-                <pt idx="3">
-                  <v>0</v>
-                </pt>
-                <pt idx="4">
-                  <v>0</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="0"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
-        <gapWidth val="20"/>
-        <axId val="1776243775"/>
-        <axId val="1776245407"/>
-      </barChart>
-      <catAx>
-        <axId val="1776243775"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <spPr>
-          <a:noFill/>
-          <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </spPr>
-        <txPr>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin charset="0" panose="020B0506020202020204" pitchFamily="34" typeface="Avenir Next Condensed"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </txPr>
-        <crossAx val="1776245407"/>
-        <crosses val="autoZero"/>
-        <auto val="1"/>
-        <lblAlgn val="ctr"/>
-        <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
-      </catAx>
-      <valAx>
-        <axId val="1776245407"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="l"/>
-        <majorGridlines>
-          <spPr>
-            <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </spPr>
-        </majorGridlines>
-        <numFmt formatCode="General" sourceLinked="0"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </spPr>
-        <txPr>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin charset="0" panose="020B0506020202020204" pitchFamily="34" typeface="Avenir Next Condensed"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </txPr>
-        <crossAx val="1776243775"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
-        <majorUnit val="2"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin charset="0" panose="020B0506020202020204" pitchFamily="34" typeface="Avenir Next Condensed Medium"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
               <a:rPr lang="de-DE"/>
               <a:t>Kartenqualität</a:t>
             </a:r>
@@ -2960,7 +2599,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -3271,7 +2910,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -3523,6 +3162,315 @@
         </a:p>
       </txPr>
     </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin charset="0" panose="020B0506020202020204" pitchFamily="34" typeface="Avenir Next Condensed Medium"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" i="0" lang="de-DE">
+                <a:latin charset="0" panose="020B0506020202020204" pitchFamily="34" typeface="Avenir Next Condensed Medium"/>
+              </a:rPr>
+              <a:t>Sternkarten</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <layout>
+        <manualLayout>
+          <xMode val="edge"/>
+          <yMode val="edge"/>
+          <wMode val="factor"/>
+          <hMode val="factor"/>
+          <x val="0.3735357869562476"/>
+          <y val="0"/>
+        </manualLayout>
+      </layout>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </title>
+    <plotArea>
+      <layout>
+        <manualLayout>
+          <layoutTarget val="inner"/>
+          <xMode val="edge"/>
+          <yMode val="edge"/>
+          <wMode val="factor"/>
+          <hMode val="factor"/>
+          <x val="0.08465173425329661"/>
+          <y val="0.1833933982331432"/>
+          <w val="0.8685028375519928"/>
+          <h val="0.4091425521238743"/>
+        </manualLayout>
+      </layout>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dPt>
+            <idx val="0"/>
+            <invertIfNegative val="0"/>
+            <bubble3D val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="3091BD"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="1"/>
+            <invertIfNegative val="0"/>
+            <bubble3D val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="4FA1C7"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="2"/>
+            <invertIfNegative val="0"/>
+            <bubble3D val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="6EB2D1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="3"/>
+            <invertIfNegative val="0"/>
+            <bubble3D val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="8DC3DC"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="4"/>
+            <invertIfNegative val="0"/>
+            <bubble3D val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="ACD3E5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <cat>
+            <numRef>
+              <f>Tabelle1!$F$70:$F$74</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="5"/>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Tabelle1!$G$70:$G$74</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>0</v>
+                </pt>
+                <pt idx="2">
+                  <v>0</v>
+                </pt>
+                <pt idx="3">
+                  <v>0</v>
+                </pt>
+                <pt idx="4">
+                  <v>0</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="20"/>
+        <axId val="1776243775"/>
+        <axId val="1776245407"/>
+      </barChart>
+      <catAx>
+        <axId val="1776243775"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill/>
+          <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin charset="0" panose="020B0506020202020204" pitchFamily="34" typeface="Avenir Next Condensed"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </txPr>
+        <crossAx val="1776245407"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="1776245407"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="General" sourceLinked="0"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin charset="0" panose="020B0506020202020204" pitchFamily="34" typeface="Avenir Next Condensed"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </txPr>
+        <crossAx val="1776243775"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+        <majorUnit val="2"/>
+      </valAx>
+    </plotArea>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
@@ -3590,13 +3538,13 @@
       <col>0</col>
       <colOff>0</colOff>
       <row>34</row>
-      <rowOff>5</rowOff>
+      <rowOff>10165</rowOff>
     </from>
     <to>
       <col>3</col>
       <colOff>9407</colOff>
       <row>45</row>
-      <rowOff>0</rowOff>
+      <rowOff>10160</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -3616,14 +3564,14 @@
     <from>
       <col>3</col>
       <colOff>751842</colOff>
-      <row>34</row>
-      <rowOff>18807</rowOff>
+      <row>33</row>
+      <rowOff>213359</rowOff>
     </from>
     <to>
       <col>6</col>
       <colOff>761250</colOff>
       <row>45</row>
-      <rowOff>59443</rowOff>
+      <rowOff>18802</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -3634,33 +3582,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </twoCellAnchor>
-  <twoCellAnchor>
-    <from>
-      <col>3</col>
-      <colOff>760496</colOff>
-      <row>45</row>
-      <rowOff>241574</rowOff>
-    </from>
-    <to>
-      <col>6</col>
-      <colOff>769904</colOff>
-      <row>57</row>
-      <rowOff>28208</rowOff>
-    </to>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="5" name="Chart 5"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -3681,13 +3602,13 @@
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
-        <cNvPr id="6" name="Chart 6"/>
+        <cNvPr id="5" name="Chart 5"/>
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId6"/>
+          <c:chart r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -3708,13 +3629,13 @@
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
-        <cNvPr id="7" name="Chart 7"/>
+        <cNvPr id="6" name="Chart 6"/>
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId7"/>
+          <c:chart r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -3735,13 +3656,13 @@
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
-        <cNvPr id="8" name="Chart 8"/>
+        <cNvPr id="7" name="Chart 7"/>
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId8"/>
+          <c:chart r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -3762,13 +3683,13 @@
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
-        <cNvPr id="9" name="Chart 9"/>
+        <cNvPr id="8" name="Chart 8"/>
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId9"/>
+          <c:chart r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -3789,13 +3710,13 @@
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
-        <cNvPr id="10" name="Chart 10"/>
+        <cNvPr id="9" name="Chart 9"/>
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId10"/>
+          <c:chart r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -3813,6 +3734,33 @@
       <colOff>767138</colOff>
       <row>32</row>
       <rowOff>81</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="10" name="Chart 10"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>762000</colOff>
+      <row>45</row>
+      <rowOff>223520</rowOff>
+    </from>
+    <to>
+      <col>6</col>
+      <colOff>771407</colOff>
+      <row>56</row>
+      <rowOff>182875</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -4134,8 +4082,8 @@
   </sheetPr>
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" view="pageLayout" workbookViewId="0" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" zoomScaleSheetLayoutView="100">
-      <selection activeCell="A77" sqref="A77:G77"/>
+    <sheetView tabSelected="1" topLeftCell="A35" view="pageLayout" workbookViewId="0" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" zoomScaleSheetLayoutView="100">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -4146,7 +4094,7 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="34" r="1">
-      <c r="A1" s="30" t="inlineStr">
+      <c r="A1" s="36" t="inlineStr">
         <is>
           <t>Work-Report Trello</t>
         </is>
@@ -4162,7 +4110,7 @@
           <t>Infos</t>
         </is>
       </c>
-      <c r="B2" s="33" t="inlineStr">
+      <c r="B2" s="39" t="inlineStr">
         <is>
           <t>Projektkoordination AS</t>
         </is>
@@ -4170,7 +4118,7 @@
       <c r="G2" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="58" r="3">
-      <c r="A3" s="32" t="inlineStr">
+      <c r="A3" s="38" t="inlineStr">
         <is>
           <t>Der Report zeigt, wie du mit der Trello-Software arbeitest und hilft dir dabei, gezielter damit umzugehen. 
 Für Feedback und Fragen zum Tool melde dich bei Micha Landoll (m.landoll@aktion-sodis.org).</t>
@@ -4178,7 +4126,7 @@
       </c>
     </row>
     <row customHeight="1" ht="126" r="4">
-      <c r="A4" s="31" t="inlineStr">
+      <c r="A4" s="37" t="inlineStr">
         <is>
           <t>Der Bericht zeigt wie aktiv, zuverlässig, pünktlich, ausführlich und gemeinschaftlich dein Team mit Trello-Karten arbeitet.
 Aktiv heißt: Anzahl erstellter &amp; bewegter Karten
@@ -4190,7 +4138,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="34" t="n"/>
+      <c r="B5" s="40" t="n"/>
     </row>
     <row customHeight="1" ht="20" r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -4201,12 +4149,12 @@
       <c r="G6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="35" t="inlineStr">
+      <c r="A7" s="41" t="inlineStr">
         <is>
           <t>Zeitraum:</t>
         </is>
       </c>
-      <c r="B7" s="39" t="inlineStr">
+      <c r="B7" s="33" t="inlineStr">
         <is>
           <t>30 Tage</t>
         </is>
@@ -4216,7 +4164,7 @@
           <t>Rankinglänge:</t>
         </is>
       </c>
-      <c r="F7" s="39" t="inlineStr">
+      <c r="F7" s="33" t="inlineStr">
         <is>
           <t>5 Einträge</t>
         </is>
@@ -4262,7 +4210,7 @@
         </is>
       </c>
       <c r="F9" s="21" t="n"/>
-      <c r="G9" s="39" t="n"/>
+      <c r="G9" s="33" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="10">
       <c r="A10" s="18" t="inlineStr">
@@ -4288,7 +4236,7 @@
       <c r="D11" s="19" t="n"/>
       <c r="E11" s="18" t="n"/>
       <c r="F11" s="19" t="n"/>
-      <c r="G11" s="39" t="n"/>
+      <c r="G11" s="33" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="12">
       <c r="A12" s="18" t="n"/>
@@ -4306,7 +4254,7 @@
       <c r="D13" s="23" t="n"/>
       <c r="E13" s="22" t="n"/>
       <c r="F13" s="23" t="n"/>
-      <c r="G13" s="39" t="n"/>
+      <c r="G13" s="33" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="70" r="14" s="4">
       <c r="A14" s="42" t="inlineStr">
@@ -4335,7 +4283,7 @@
           <t>Aktiv</t>
         </is>
       </c>
-      <c r="B16" s="39" t="n"/>
+      <c r="B16" s="33" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="17">
       <c r="B17" s="7" t="inlineStr">
@@ -4344,15 +4292,15 @@
         </is>
       </c>
       <c r="C17" s="13" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F17" s="14" t="inlineStr">
         <is>
           <t>Aktiv</t>
         </is>
       </c>
-      <c r="G17" s="35" t="n">
-        <v>18</v>
+      <c r="G17" s="41" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -4376,8 +4324,8 @@
           <t>Semifinal</t>
         </is>
       </c>
-      <c r="G18" s="35" t="n">
-        <v>5</v>
+      <c r="G18" s="41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -4388,7 +4336,7 @@
       </c>
       <c r="D19" s="26" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>129</t>
         </is>
       </c>
       <c r="F19" s="14" t="inlineStr">
@@ -4396,8 +4344,8 @@
           <t>Final</t>
         </is>
       </c>
-      <c r="G19" s="35" t="n">
-        <v>15</v>
+      <c r="G19" s="41" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20">
@@ -4418,18 +4366,18 @@
       </c>
       <c r="D20" s="25" t="inlineStr">
         <is>
-          <t>18.4% der Karten</t>
+          <t>20.5% der Karten</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="14" t="n">
-        <v>83</v>
-      </c>
-      <c r="C21" s="36" t="inlineStr">
+        <v>92</v>
+      </c>
+      <c r="C21" s="30" t="inlineStr">
         <is>
           <t>Bewegungen von Karten entgegen der definierten Richtung sind zu reduzieren. Du kannst Karten alte Karten kopieren anstelle diese für neue Aufgaben zu modifizieren.</t>
         </is>
@@ -4454,7 +4402,7 @@
           <t>Karten ohne Aktivität</t>
         </is>
       </c>
-      <c r="B26" s="35" t="n"/>
+      <c r="B26" s="41" t="n"/>
       <c r="C26" s="14" t="n"/>
       <c r="D26" s="14" t="n"/>
       <c r="E26" s="14" t="n"/>
@@ -4469,10 +4417,10 @@
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D27" s="14" t="n"/>
-      <c r="E27" s="35" t="n"/>
+      <c r="E27" s="41" t="n"/>
       <c r="F27" s="14" t="n"/>
       <c r="G27" s="14" t="n"/>
     </row>
@@ -4480,14 +4428,14 @@
       <c r="A28" s="14" t="n"/>
       <c r="B28" s="14" t="inlineStr">
         <is>
-          <t>Team stärken - Nutrición Escolar ⭐️</t>
+          <t>Finanzfeedback an #projekte ⭐️</t>
         </is>
       </c>
       <c r="C28" s="14" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D28" s="14" t="n"/>
-      <c r="E28" s="35" t="n"/>
+      <c r="E28" s="41" t="n"/>
       <c r="F28" s="14" t="n"/>
       <c r="G28" s="14" t="n"/>
     </row>
@@ -4495,14 +4443,14 @@
       <c r="A29" s="14" t="n"/>
       <c r="B29" s="14" t="inlineStr">
         <is>
-          <t>Finanzfeedback an #projekte ⭐️</t>
+          <t>Aufstellung der Projektkoordination AS ⭐️</t>
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D29" s="14" t="n"/>
-      <c r="E29" s="35" t="n"/>
+      <c r="E29" s="41" t="n"/>
       <c r="F29" s="14" t="n"/>
       <c r="G29" s="14" t="n"/>
     </row>
@@ -4510,14 +4458,14 @@
       <c r="A30" s="14" t="n"/>
       <c r="B30" s="14" t="inlineStr">
         <is>
-          <t>Projektseiten - Google Sites</t>
+          <t>Finanzfeedback für FS ⭐️</t>
         </is>
       </c>
       <c r="C30" s="14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D30" s="14" t="n"/>
-      <c r="E30" s="35" t="n"/>
+      <c r="E30" s="41" t="n"/>
       <c r="F30" s="14" t="n"/>
       <c r="G30" s="14" t="n"/>
     </row>
@@ -4525,14 +4473,14 @@
       <c r="A31" s="14" t="n"/>
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>Personalwechsel FS in Projektkoordination ⭐️</t>
+          <t>Organigram aktualisieren ⭐️</t>
         </is>
       </c>
       <c r="C31" s="14" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D31" s="14" t="n"/>
-      <c r="E31" s="35" t="n"/>
+      <c r="E31" s="41" t="n"/>
       <c r="F31" s="14" t="n"/>
       <c r="G31" s="14" t="n"/>
     </row>
@@ -4564,7 +4512,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -4575,7 +4523,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Micha Landoll</t>
+          <t>Noah Brechmann</t>
         </is>
       </c>
       <c r="C35" s="14" t="n">
@@ -4590,11 +4538,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Noah Brechmann</t>
+          <t>Micha Landoll</t>
         </is>
       </c>
       <c r="C36" s="14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
@@ -4609,7 +4557,7 @@
         </is>
       </c>
       <c r="C37" s="14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -4620,11 +4568,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Jonas Ullmann</t>
+          <t>Marie-Sophie Braun</t>
         </is>
       </c>
       <c r="C38" s="14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -4635,15 +4583,15 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Marie-Sophie Braun</t>
+          <t>Jonas Ullmann</t>
         </is>
       </c>
       <c r="C39" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Micha Landoll</t>
+          <t>Noah Brechmann</t>
         </is>
       </c>
       <c r="F39" s="14" t="n">
@@ -4653,11 +4601,11 @@
     <row r="40">
       <c r="E40" t="inlineStr">
         <is>
-          <t>Noah Brechmann</t>
+          <t>Micha Landoll</t>
         </is>
       </c>
       <c r="F40" s="14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
@@ -4667,27 +4615,27 @@
         </is>
       </c>
       <c r="F41" s="14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="inlineStr">
         <is>
-          <t>Jonas Ullmann</t>
+          <t>Marie-Sophie Braun</t>
         </is>
       </c>
       <c r="F42" s="14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="inlineStr">
         <is>
-          <t>Marie-Sophie Braun</t>
+          <t>Jonas Ullmann</t>
         </is>
       </c>
       <c r="F43" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="46">
@@ -4712,11 +4660,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Noah Brechmann</t>
+          <t>Micha Landoll</t>
         </is>
       </c>
       <c r="C48" s="14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -4727,11 +4675,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Micha Landoll</t>
+          <t>Noah Brechmann</t>
         </is>
       </c>
       <c r="C49" s="14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -4769,7 +4717,7 @@
         </is>
       </c>
       <c r="C51" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -4849,8 +4797,8 @@
           <t>Finale Karten</t>
         </is>
       </c>
-      <c r="G60" s="35" t="n">
-        <v>15</v>
+      <c r="G60" s="41" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="61">
@@ -4867,7 +4815,7 @@
           <t>Pünktlich</t>
         </is>
       </c>
-      <c r="G61" s="35" t="n">
+      <c r="G61" s="41" t="n">
         <v>11</v>
       </c>
     </row>
@@ -4919,15 +4867,15 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
           <t>Micha Landoll</t>
         </is>
       </c>
-      <c r="G70" s="35" t="n">
-        <v>13</v>
+      <c r="G70" s="41" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="71">
@@ -4937,15 +4885,15 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
           <t>Noah Brechmann</t>
         </is>
       </c>
-      <c r="G71" s="35" t="n">
-        <v>7</v>
+      <c r="G71" s="41" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="72">
@@ -4963,7 +4911,7 @@
           <t>Valentin Buchenroth</t>
         </is>
       </c>
-      <c r="G72" s="35" t="n">
+      <c r="G72" s="41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4978,25 +4926,25 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Jonas Ullmann</t>
-        </is>
-      </c>
-      <c r="G73" s="35" t="n">
-        <v>2</v>
+          <t>Marie-Sophie Braun</t>
+        </is>
+      </c>
+      <c r="G73" s="41" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="inlineStr">
         <is>
-          <t>Maria Lütticke</t>
-        </is>
-      </c>
-      <c r="G74" s="35" t="n">
-        <v>1</v>
+          <t>Jonas Ullmann</t>
+        </is>
+      </c>
+      <c r="G74" s="41" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="37" t="inlineStr">
+      <c r="A77" s="31" t="inlineStr">
         <is>
           <t>Stern, wenn Beschreibung, Stichtag und Verantwortlichkeit. Shit-Haufen, wenn ein Merkmal oder weniger.</t>
         </is>
@@ -5004,17 +4952,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B5:G5"/>
     <mergeCell ref="C21:E25"/>
     <mergeCell ref="A77:G77"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <pageMargins bottom="0.787401575" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.787401575"/>
   <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
